--- a/数据整理/stocks/港股/00914-海螺水泥.xlsx
+++ b/数据整理/stocks/港股/00914-海螺水泥.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005770</t>
+          <t>003993</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003993</t>
+          <t>005770</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心驱动灵活配置混合</t>
+          <t>信达澳银中证沪港深高股息精选指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>69.81</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>64.91</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.37</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.43</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.13</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00914-海螺水泥.xlsx
+++ b/数据整理/stocks/港股/00914-海螺水泥.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00914-海螺水泥.xlsx
+++ b/数据整理/stocks/港股/00914-海螺水泥.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -802,4 +803,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00914-海螺水泥.xlsx
+++ b/数据整理/stocks/港股/00914-海螺水泥.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00914-海螺水泥.xlsx
+++ b/数据整理/stocks/港股/00914-海螺水泥.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.32</v>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2695</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1029,14 +1072,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1045,14 +1110,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1061,13 +1148,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00914-海螺水泥.xlsx
+++ b/数据整理/stocks/港股/00914-海螺水泥.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1229,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,17 +1241,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1260,14 +1281,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.55</v>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2922</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1276,14 +1319,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.32</v>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1292,14 +1357,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1308,14 +1395,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1324,13 +1433,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00914-海螺水泥.xlsx
+++ b/数据整理/stocks/港股/00914-海螺水泥.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1628,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,17 +1640,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1659,14 +1680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>49.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3899</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1675,14 +1718,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.55</v>
+          <t>012256</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2328</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1691,14 +1756,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.32</v>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>49.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1707,14 +1794,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+          <t>012701</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1723,14 +1832,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01</v>
+          <t>012702</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1739,13 +1870,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012257</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00914-海螺水泥.xlsx
+++ b/数据整理/stocks/港股/00914-海螺水泥.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>1.1</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.55</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.32</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -600,6 +617,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>113.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0870</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009101</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8066</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012609</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信稳健汇利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3111</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012256</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2651</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>49.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1899</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>49.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012610</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信稳健汇利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1651</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012250</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信平衡增利混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012251</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信平衡增利混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010661</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012257</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +1716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1357,7 +2114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1603,7 +2360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1773,7 +2530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1867,7 +2624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1999,7 +2756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
